--- a/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
+++ b/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
+++ b/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
@@ -95,7 +95,7 @@
     <t>Chefe Clica para exibir a lista de diárias (solicitações) aptas para pagamento (SITUAÇÃO LIQUIDADA).</t>
   </si>
   <si>
-    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento.</t>
+    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento ordenado pelo numero de diarias em ordem crescente.</t>
   </si>
   <si>
     <t>Chefe Seleciona um usuário para filtrar as autorizações de pagamento associadas a ele; e Submete a busca ao sistema.</t>

--- a/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
+++ b/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
@@ -95,7 +95,7 @@
     <t>Chefe Clica para exibir a lista de diárias (solicitações) aptas para pagamento (SITUAÇÃO LIQUIDADA).</t>
   </si>
   <si>
-    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento ordenado pelo numero de diarias em ordem crescente.</t>
+    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento ordenado pelo numero de diarias em ordem crescente. Exibe esta lista de diárias também ordenada pela data de chegada da solicitação na fase de autorização (após registrar o empenho).</t>
   </si>
   <si>
     <t>Chefe Seleciona um usuário para filtrar as autorizações de pagamento associadas a ele; e Submete a busca ao sistema.</t>

--- a/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
+++ b/output/xlsx/UC007 - Listar Autorizações de Pagamento Pendentes--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -95,7 +95,7 @@
     <t>Chefe Clica para exibir a lista de diárias (solicitações) aptas para pagamento (SITUAÇÃO LIQUIDADA).</t>
   </si>
   <si>
-    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento ordenado pelo numero de diarias em ordem crescente. Exibe esta lista de diárias também ordenada pela data de chegada da solicitação na fase de autorização (após registrar o empenho).</t>
+    <t>SYSTEM Recupera e exibe para o usuário a lista de diárias aptas para pagamento ordenado pelo número de diárias em ordem crescente. Exibe esta lista de diárias também ordenada pela data de chegada da solicitação na fase de autorização (após registrar o empenho).</t>
   </si>
   <si>
     <t>Chefe Seleciona um usuário para filtrar as autorizações de pagamento associadas a ele; e Submete a busca ao sistema.</t>
@@ -110,7 +110,7 @@
     <t>Chefe Clica para realizar a autorização de pagamento.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Registrar Autorizações de Pagamento</t>
+    <t>SYSTEM Apresenta a tela de Registrar Autorizações de Pagamento.</t>
   </si>
   <si>
     <t>TC3</t>
@@ -119,7 +119,7 @@
     <t>Chefe Dado um registro selecionado (solicitação aguardando autorização de pagamento - AP), o usuário pode atribuir/desatribuir a responsabilidade da AP a si próprio; e Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela AP) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde deverá constar o nome do usuário logado (que se atribuiu como responsável pela AP) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
   </si>
   <si>
     <t>TC4</t>
@@ -128,16 +128,16 @@
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC5</t>
   </si>
   <si>
-    <t>Chefe Seleciona uma diária apta para pagamento</t>
-  </si>
-  <si>
-    <t>SYSTEM Destaca a diária selecionada</t>
+    <t>Chefe Seleciona uma diária apta para pagamento.</t>
+  </si>
+  <si>
+    <t>SYSTEM Destaca a diária selecionada.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
